--- a/biology/Médecine/Charly-Sam_Jallatte/Charly-Sam_Jallatte.xlsx
+++ b/biology/Médecine/Charly-Sam_Jallatte/Charly-Sam_Jallatte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charly-Sam Jallatte, né le 10 septembre 1925 à Valence et mort le 11 février 2012 à Nîmes, est un médecin et résistant français.
 </t>
@@ -511,18 +523,20 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charles Sam Paul Jallatte[1] est le frère de Jean Jallatte, résistant exécuté en 1944, et de Pierre Jallatte, futur industriel
-iconoclaste[2].
-Élève du lycée de garçons de Nîmes, il commence à être actif dans la résistance dès 1942, en distribuant des journaux clandestins et placardant des tracts sur les boîtes à lettres[2]. Dès 1943, ayant pris le pseudonyme « André Martinet », il intègre le contre-espionnage, sans son frère[3]. Il assure des liaisons avec le maquis de L'Estréchure[3]. Le 23 mai 1944, il est arrêté en terrasse du café de Paris à Nîmes et torturé au siège de la Gestapo[4]. Il réussit cependant à s’évader lors de son transfert[3]. Déguisé en scout, il rejoint la Creuse ; là, il participe à de multiples actions, puis à la
-libération de Guéret [3]. En octobre 1944, il prend la tête du
-service de renseignements de la subdivision militaire de Nîmes[3]. Il
-est démobilisé en décembre suivant[3].
-Il reprend après-guerre des études de médecine[2]. Il y rencontre sa femme, Denyse Landauer, qu’il épouse en 1948[5]. Installé à Nîmes, il est aussi de 1969 à 1980 directeur du laboratoire de génétique de Tours[2].
-Titulaire de la chaire de pathologie génitale à la faculté de médecine de Tours, il est considéré comme l’un des co-concepteurs du bébé éprouvette[2].
-Revenu à Nîmes, il devient président des Bibliophiles de Nîmes et du Gard[2]. Élu à l’Académie de Nîmes en 1992, il la préside en 2001[2].
-En 2009, il prend encore part à un projet dirigé par Didier Lavrut dans le cadre du concours national de la résistance et de la déportation[2]. Il meurt le 11 février 2012 à Nîmes[5]. Il repose au cimetière protestant de Nîmes[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charles Sam Paul Jallatte est le frère de Jean Jallatte, résistant exécuté en 1944, et de Pierre Jallatte, futur industriel
+iconoclaste.
+Élève du lycée de garçons de Nîmes, il commence à être actif dans la résistance dès 1942, en distribuant des journaux clandestins et placardant des tracts sur les boîtes à lettres. Dès 1943, ayant pris le pseudonyme « André Martinet », il intègre le contre-espionnage, sans son frère. Il assure des liaisons avec le maquis de L'Estréchure. Le 23 mai 1944, il est arrêté en terrasse du café de Paris à Nîmes et torturé au siège de la Gestapo. Il réussit cependant à s’évader lors de son transfert. Déguisé en scout, il rejoint la Creuse ; là, il participe à de multiples actions, puis à la
+libération de Guéret . En octobre 1944, il prend la tête du
+service de renseignements de la subdivision militaire de Nîmes. Il
+est démobilisé en décembre suivant.
+Il reprend après-guerre des études de médecine. Il y rencontre sa femme, Denyse Landauer, qu’il épouse en 1948. Installé à Nîmes, il est aussi de 1969 à 1980 directeur du laboratoire de génétique de Tours.
+Titulaire de la chaire de pathologie génitale à la faculté de médecine de Tours, il est considéré comme l’un des co-concepteurs du bébé éprouvette.
+Revenu à Nîmes, il devient président des Bibliophiles de Nîmes et du Gard. Élu à l’Académie de Nîmes en 1992, il la préside en 2001.
+En 2009, il prend encore part à un projet dirigé par Didier Lavrut dans le cadre du concours national de la résistance et de la déportation. Il meurt le 11 février 2012 à Nîmes. Il repose au cimetière protestant de Nîmes.
 </t>
         </is>
       </c>
@@ -551,9 +565,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Chevalier de la Légion d'honneur[6]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chevalier de la Légion d'honneur
  Croix du combattant volontaire de la Résistance
  Médaille de la déportation pour faits de Résistance
  Médaille de la France libérée</t>
